--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2579.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2579.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8801498903124364</v>
+        <v>0.7799339294433594</v>
       </c>
       <c r="B1">
-        <v>1.388090969829912</v>
+        <v>5.058628082275391</v>
       </c>
       <c r="C1">
-        <v>3.060596026827854</v>
+        <v>4.512070655822754</v>
       </c>
       <c r="D1">
-        <v>2.252381672209185</v>
+        <v>1.088398814201355</v>
       </c>
       <c r="E1">
-        <v>0.9162387749436205</v>
+        <v>0.6696374416351318</v>
       </c>
     </row>
   </sheetData>
